--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R210_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R210_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +414,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +461,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +645,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +692,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +876,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +923,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1199,10 +1223,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1246,28 +1270,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1292,28 +1316,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1401,10 +1425,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1448,28 +1472,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1494,28 +1518,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1603,10 +1627,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1650,28 +1674,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1696,28 +1720,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1950,10 +1974,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1997,28 +2021,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2043,28 +2067,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2181,10 +2205,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2228,28 +2252,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2274,28 +2298,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2412,10 +2436,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2459,28 +2483,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2505,28 +2529,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2817,10 +2841,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2864,28 +2888,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2910,28 +2934,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3077,10 +3101,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3124,28 +3148,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3170,28 +3194,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3308,10 +3332,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3355,28 +3379,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3401,28 +3425,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3539,10 +3563,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3586,28 +3610,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3632,28 +3656,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3741,10 +3765,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3788,28 +3812,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3834,28 +3858,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4117,10 +4141,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4164,28 +4188,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4210,28 +4234,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4464,10 +4488,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4511,28 +4535,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4557,28 +4581,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4695,10 +4719,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4742,28 +4766,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4788,28 +4812,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4926,10 +4950,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4973,28 +4997,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5019,28 +5043,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5186,10 +5210,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5233,28 +5257,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5279,28 +5303,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5533,10 +5557,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5580,28 +5604,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5626,28 +5650,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5735,10 +5759,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5782,28 +5806,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5828,28 +5852,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6082,10 +6106,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6129,28 +6153,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6175,28 +6199,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6284,10 +6308,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6331,28 +6355,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6377,28 +6401,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6515,10 +6539,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
